--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89461.97596601775</v>
+        <v>16088551.66678967</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89461.97596601775</v>
+        <v>16088551.66678967</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3755.598970893338</v>
+        <v>355284.207722206</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3755.598970893338</v>
+        <v>355284.207722206</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035976844.010195</v>
+        <v>42648522.78192201</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8418.582473714701</v>
+        <v>997943.9621227203</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15889.4934530386</v>
+        <v>1845031.863118911</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23310.50239199726</v>
+        <v>2692119.764115103</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31008.62811030285</v>
+        <v>3541228.656047619</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38669.66207850922</v>
+        <v>4389949.601580879</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46288.76709648295</v>
+        <v>5238670.547114136</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53999.37329061273</v>
+        <v>6087391.492647389</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61639.06673542296</v>
+        <v>6936112.438180643</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69270.09038058504</v>
+        <v>7784307.871187055</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76858.8619315338</v>
+        <v>8632612.171863243</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84404.31459953845</v>
+        <v>9480916.472539436</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91843.96308365937</v>
+        <v>10327187.85234825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99195.31918584595</v>
+        <v>11173847.68454444</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106888.925996078</v>
+        <v>11984509.92138196</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114524.3602168351</v>
+        <v>12800592.32148532</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>362</v>
@@ -27055,7 +27055,7 @@
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
